--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed3/result_data_RandomForest.xlsx
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.440099999999996</v>
+        <v>-8.149199999999997</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.375099999999993</v>
+        <v>-8.167899999999989</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.0304</v>
+        <v>-8.121099999999998</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -661,7 +661,7 @@
         <v>-8.92</v>
       </c>
       <c r="E13" t="n">
-        <v>12.0097</v>
+        <v>12.44769999999999</v>
       </c>
     </row>
     <row r="14">
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.093399999999997</v>
+        <v>-8.182499999999994</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.131200000000005</v>
+        <v>-8.328899999999997</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
